--- a/medicine/Sexualité et sexologie/Cinderelas,_Lobos_e_um_Príncipe_Encantado/Cinderelas,_Lobos_e_um_Príncipe_Encantado.xlsx
+++ b/medicine/Sexualité et sexologie/Cinderelas,_Lobos_e_um_Príncipe_Encantado/Cinderelas,_Lobos_e_um_Príncipe_Encantado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cinderelas,_Lobos_e_um_Pr%C3%ADncipe_Encantado</t>
+          <t>Cinderelas,_Lobos_e_um_Príncipe_Encantado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinderelas, Lobos e um Príncipe Encantado est un film documentaire brésilien réalisé en 2009.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cinderelas,_Lobos_e_um_Pr%C3%ADncipe_Encantado</t>
+          <t>Cinderelas,_Lobos_e_um_Príncipe_Encantado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, 900 000 personnes sont victimes du trafic humain avec un unique but : l’exploitation sexuelle. Pourtant, malgré la violence et les dangers, de jeunes Brésiliennes continuent à croire à la possibilité de changer de vie et de trouver leur prince charmant en se plongeant dans le tourisme sexuel. Seule une petite minorité réussit à trouver l’âme sœur et à se marier. Le film voyage du Nordeste brésilien jusqu’à Berlin, pour tenter de comprendre l’imaginaire sexuel, racial et de pouvoir de ces jeunes Cendrillons du sud et de ces loups venus du nord.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cinderelas,_Lobos_e_um_Pr%C3%ADncipe_Encantado</t>
+          <t>Cinderelas,_Lobos_e_um_Príncipe_Encantado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Joel Zito Araújo
 Production : Casa de Criação
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cinderelas,_Lobos_e_um_Pr%C3%ADncipe_Encantado</t>
+          <t>Cinderelas,_Lobos_e_um_Príncipe_Encantado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brasilia 2008</t>
         </is>
